--- a/lista_bd.xlsx
+++ b/lista_bd.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="61">
   <si>
     <t>TIPO</t>
   </si>
@@ -132,6 +132,81 @@
   </si>
   <si>
     <t>LAPOP</t>
+  </si>
+  <si>
+    <t>Registros</t>
+  </si>
+  <si>
+    <t>Tasa de reprobados (sexo, nivel, dependencia, tipo, departamento)</t>
+  </si>
+  <si>
+    <t>2012-2021</t>
+  </si>
+  <si>
+    <t>excel</t>
+  </si>
+  <si>
+    <t>Unidad de análisis</t>
+  </si>
+  <si>
+    <t>Estudiantes</t>
+  </si>
+  <si>
+    <t>Escala</t>
+  </si>
+  <si>
+    <t>Departamento, publico, privado, sexo</t>
+  </si>
+  <si>
+    <t>Unidad de informaciòn</t>
+  </si>
+  <si>
+    <t>Ministerio de educaciòn</t>
+  </si>
+  <si>
+    <t>Nùmero de establecimientos de salud: tipo, departamento</t>
+  </si>
+  <si>
+    <t>1997-2021</t>
+  </si>
+  <si>
+    <t>Ministerio de salud</t>
+  </si>
+  <si>
+    <t>Establecimiento de salud</t>
+  </si>
+  <si>
+    <t>Departamental</t>
+  </si>
+  <si>
+    <t>RUDE</t>
+  </si>
+  <si>
+    <t>Camas hospitalarias y habitantes; departamento</t>
+  </si>
+  <si>
+    <t>2005-2021</t>
+  </si>
+  <si>
+    <t>Nùmero de personal adminsitrativo de UE; pública</t>
+  </si>
+  <si>
+    <t>2011-2021</t>
+  </si>
+  <si>
+    <t>Unidad educativa</t>
+  </si>
+  <si>
+    <t>Disturbio civiles, departamento tipo</t>
+  </si>
+  <si>
+    <t>2007-2021</t>
+  </si>
+  <si>
+    <t>Disturbios</t>
+  </si>
+  <si>
+    <t>Policia Boliviana</t>
   </si>
 </sst>
 </file>
@@ -449,20 +524,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -484,8 +559,17 @@
       <c r="G1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -508,7 +592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -528,7 +612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -548,7 +632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -568,7 +652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -588,7 +672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -605,7 +689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -628,7 +712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -651,7 +735,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -674,7 +758,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -697,7 +781,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -717,7 +801,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -737,9 +821,149 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
